--- a/Documentation/gantt-chart.xlsx
+++ b/Documentation/gantt-chart.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/Project4/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D676679-A1C8-B34D-971E-C251D055C765}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="27800" windowHeight="14320"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="27800" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="real Gantt Chart" sheetId="3" r:id="rId1"/>
     <sheet name="projected Gantt Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -63,11 +64,47 @@
   <si>
     <t>Home, Character, Level UI</t>
   </si>
+  <si>
+    <t>Stage 2 Planning</t>
+  </si>
+  <si>
+    <t>Level Progression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animations </t>
+  </si>
+  <si>
+    <t>End game Menu</t>
+  </si>
+  <si>
+    <t>New Enemies</t>
+  </si>
+  <si>
+    <t>Leaderboards</t>
+  </si>
+  <si>
+    <t>Pause Menu</t>
+  </si>
+  <si>
+    <t>Small Story</t>
+  </si>
+  <si>
+    <t>Additional Player Options</t>
+  </si>
+  <si>
+    <t>Power Ups</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Final Touches on game</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +217,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStyleMedium18 2" pivot="0" count="5">
+    <tableStyle name="TableStyleMedium18 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstColumn" dxfId="3"/>
       <tableStyleElement type="lastColumn" dxfId="2"/>
@@ -206,7 +243,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -219,19 +256,68 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gant</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>t Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2237819596874715"/>
-          <c:y val="7.1052278845101499E-2"/>
-          <c:w val="0.7073119914064796"/>
-          <c:h val="0.86647823344158914"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -260,9 +346,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'real Gantt Chart'!$A$2:$A$10</c:f>
+              <c:f>'real Gantt Chart'!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
@@ -282,23 +368,50 @@
                   <c:v>Merge Characters and map</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Game Balancing</c:v>
+                  <c:v>Stage 2 Planning</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Debug/Test</c:v>
+                  <c:v>Level Progression</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Publish Project</c:v>
+                  <c:v>Animations </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>End game Menu</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>New Enemies</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Power Ups</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leaderboards</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pause Menu</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Small Story</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Additional Player Options</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Final Touches on game</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'real Gantt Chart'!$B$2:$B$10</c:f>
+              <c:f>'real Gantt Chart'!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43173</c:v>
                 </c:pt>
@@ -316,13 +429,49 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43219</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB23-8C4B-BAA9-3082C675A997}"/>
+              <c16:uniqueId val="{00000000-BC56-3849-A791-D1FDE385AF65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -330,7 +479,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Duration</c:v>
+            <c:strRef>
+              <c:f>'real Gantt Chart'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -342,11 +499,383 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-BC56-3849-A791-D1FDE385AF65}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'real Gantt Chart'!$A$2:$A$10</c:f>
+              <c:f>'real Gantt Chart'!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
@@ -366,23 +895,50 @@
                   <c:v>Merge Characters and map</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Game Balancing</c:v>
+                  <c:v>Stage 2 Planning</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Debug/Test</c:v>
+                  <c:v>Level Progression</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Publish Project</c:v>
+                  <c:v>Animations </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>End game Menu</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>New Enemies</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Power Ups</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leaderboards</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pause Menu</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Small Story</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Additional Player Options</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Final Touches on game</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'real Gantt Chart'!$D$2:$D$10</c:f>
+              <c:f>'real Gantt Chart'!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -400,13 +956,49 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB23-8C4B-BAA9-3082C675A997}"/>
+              <c16:uniqueId val="{00000001-BC56-3849-A791-D1FDE385AF65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -420,11 +1012,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="406692472"/>
-        <c:axId val="406692864"/>
+        <c:axId val="1887966576"/>
+        <c:axId val="1887968272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="406692472"/>
+        <c:axId val="1887966576"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -467,7 +1059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406692864"/>
+        <c:crossAx val="1887968272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -475,10 +1067,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406692864"/>
+        <c:axId val="1887968272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43198"/>
+          <c:max val="43225"/>
           <c:min val="43173"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -528,10 +1120,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406692472"/>
+        <c:crossAx val="1887966576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="15"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -543,6 +1135,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -579,7 +1178,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -690,7 +1289,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
@@ -771,7 +1370,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
@@ -2039,29 +2638,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7CE6FB-5AA4-D647-AFC3-9C40DE694DA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2098,7 +2695,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,6 +2792,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2230,6 +2844,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2405,21 +3036,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +3064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2448,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +3094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2478,7 +3109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2493,7 +3124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2504,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2519,40 +3150,213 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>43199</v>
+      </c>
       <c r="C8" s="1">
         <f>B8+11</f>
-        <v>11</v>
+        <v>43210</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43204</v>
+      </c>
       <c r="C9" s="3">
         <f>B9+2</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>43206</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43204</v>
+      </c>
       <c r="C10" s="3">
         <f>B10+14</f>
+        <v>43218</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6">
+        <v>43209</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11" si="0">B11+5</f>
+        <v>43214</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43209</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12" si="1">B12+11</f>
+        <v>43220</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43209</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14" si="2">B14+22</f>
+        <v>43235</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43213</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ref="C15" si="3">B15+6</f>
+        <v>43219</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43216</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43216</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C18" si="4">B17+11</f>
+        <v>43227</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6">
+        <v>43219</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="4"/>
+        <v>43230</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7">
+        <v>43221</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19" si="5">B19+2</f>
+        <v>43223</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20" si="6">B20+14</f>
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D20" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21" si="7">B21+5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22" si="8">B22+11</f>
+        <v>11</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23" si="9">B23+22</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2563,21 +3367,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2591,7 +3395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2621,7 +3425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2651,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2666,7 +3470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2681,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2696,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3">
@@ -2705,14 +3509,14 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f>B10+6</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>

--- a/Documentation/gantt-chart.xlsx
+++ b/Documentation/gantt-chart.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/Project4/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D676679-A1C8-B34D-971E-C251D055C765}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="27800" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="27800" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="real Gantt Chart" sheetId="3" r:id="rId1"/>
     <sheet name="projected Gantt Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -64,47 +63,11 @@
   <si>
     <t>Home, Character, Level UI</t>
   </si>
-  <si>
-    <t>Stage 2 Planning</t>
-  </si>
-  <si>
-    <t>Level Progression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animations </t>
-  </si>
-  <si>
-    <t>End game Menu</t>
-  </si>
-  <si>
-    <t>New Enemies</t>
-  </si>
-  <si>
-    <t>Leaderboards</t>
-  </si>
-  <si>
-    <t>Pause Menu</t>
-  </si>
-  <si>
-    <t>Small Story</t>
-  </si>
-  <si>
-    <t>Additional Player Options</t>
-  </si>
-  <si>
-    <t>Power Ups</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Final Touches on game</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,7 +180,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStyleMedium18 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStyleMedium18 2" pivot="0" count="5">
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstColumn" dxfId="3"/>
       <tableStyleElement type="lastColumn" dxfId="2"/>
@@ -243,7 +206,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -256,68 +219,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Gant</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>t Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2237819596874715"/>
+          <c:y val="7.1052278845101499E-2"/>
+          <c:w val="0.7073119914064796"/>
+          <c:h val="0.86647823344158914"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -346,9 +260,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'real Gantt Chart'!$A$2:$A$19</c:f>
+              <c:f>'real Gantt Chart'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
@@ -368,50 +282,23 @@
                   <c:v>Merge Characters and map</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Stage 2 Planning</c:v>
+                  <c:v>Game Balancing</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Level Progression</c:v>
+                  <c:v>Debug/Test</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Animations </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>End game Menu</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>New Enemies</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Power Ups</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Leaderboards</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Pause Menu</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Small Story</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Additional Player Options</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Music</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Final Touches on game</c:v>
+                  <c:v>Publish Project</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'real Gantt Chart'!$B$2:$B$19</c:f>
+              <c:f>'real Gantt Chart'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43173</c:v>
                 </c:pt>
@@ -429,49 +316,13 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43194</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43199</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43204</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43204</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43209</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43209</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43209</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43213</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43213</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43216</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43216</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43219</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC56-3849-A791-D1FDE385AF65}"/>
+              <c16:uniqueId val="{00000000-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -479,15 +330,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'real Gantt Chart'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Duration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Duration</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -499,383 +342,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-BC56-3849-A791-D1FDE385AF65}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'real Gantt Chart'!$A$2:$A$19</c:f>
+              <c:f>'real Gantt Chart'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
@@ -895,50 +366,23 @@
                   <c:v>Merge Characters and map</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Stage 2 Planning</c:v>
+                  <c:v>Game Balancing</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Level Progression</c:v>
+                  <c:v>Debug/Test</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Animations </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>End game Menu</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>New Enemies</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Power Ups</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Leaderboards</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Pause Menu</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Small Story</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Additional Player Options</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Music</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Final Touches on game</c:v>
+                  <c:v>Publish Project</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'real Gantt Chart'!$D$2:$D$19</c:f>
+              <c:f>'real Gantt Chart'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -956,49 +400,13 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC56-3849-A791-D1FDE385AF65}"/>
+              <c16:uniqueId val="{00000001-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1012,11 +420,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1887966576"/>
-        <c:axId val="1887968272"/>
+        <c:axId val="406692472"/>
+        <c:axId val="406692864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1887966576"/>
+        <c:axId val="406692472"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1059,7 +467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1887968272"/>
+        <c:crossAx val="406692864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,10 +475,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1887968272"/>
+        <c:axId val="406692864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43225"/>
+          <c:max val="43198"/>
           <c:min val="43173"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1120,10 +528,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1887966576"/>
+        <c:crossAx val="406692472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="15"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1135,13 +543,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1178,7 +579,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1289,7 +690,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
@@ -1370,7 +771,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
@@ -2638,27 +2039,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7CE6FB-5AA4-D647-AFC3-9C40DE694DA9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2695,7 +2098,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,23 +2195,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2844,23 +2230,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3036,21 +2405,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3064,7 +2433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3079,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3094,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3109,7 +2478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3124,7 +2493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3135,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3150,213 +2519,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
-        <v>43199</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f>B8+11</f>
-        <v>43210</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7">
-        <v>43204</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="3">
         <f>B9+2</f>
-        <v>43206</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7">
-        <v>43204</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="3">
         <f>B10+14</f>
-        <v>43218</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6">
-        <v>43209</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ref="C11" si="0">B11+5</f>
-        <v>43214</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7">
-        <v>43209</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" ref="C12" si="1">B12+11</f>
-        <v>43220</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7">
-        <v>43209</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="6">
-        <v>43213</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" ref="C14" si="2">B14+22</f>
-        <v>43235</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15" si="3">B15+6</f>
-        <v>43219</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6">
-        <v>43216</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6">
-        <v>43216</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:C18" si="4">B17+11</f>
-        <v>43227</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6">
-        <v>43219</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="4"/>
-        <v>43230</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="7">
-        <v>43221</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19" si="5">B19+2</f>
-        <v>43223</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20" si="6">B20+14</f>
-        <v>14</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="1">
-        <f t="shared" ref="C21" si="7">B21+5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22" si="8">B22+11</f>
-        <v>11</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23" si="9">B23+22</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3367,21 +2563,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +2591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3425,7 +2621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +2636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3455,7 +2651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3470,7 +2666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +2681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -3500,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3">
@@ -3509,14 +2705,14 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f>B10+6</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
